--- a/biology/Histoire de la zoologie et de la botanique/Johann_Reinhold_Forster/Johann_Reinhold_Forster.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Reinhold_Forster/Johann_Reinhold_Forster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Reinhold Forster (22 octobre 1729, Dirschau au sud de Dantzig - 9 décembre 1798, Halle (Saxe-Anhalt)) est un naturaliste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forster est un descendant d'une famille du Yorkshire qui s'est installée au milieu du XVIIe siècle à Dantzig.
 Forster est connu pour ses contributions dans le domaine de l'ornithologie européenne et nord-américaine. Il tire aussi sa renommée de sa participation, comme naturaliste, au deuxième voyage de James Cook dans l'océan Pacifique ; son fils Georg, l'accompagne.
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Novæ species insectorum. Centuria I, Londini, T. Davies, B. White, 1771
 Characteres generum plantarum quas in itinere ad insulas maris australis collegerunt, descripserunt, delinearunt, annis 1772-1775 (Caractères des plantes australes), 1776 ;
